--- a/Fixturing/Part List/Plasma Source Part List.xlsx
+++ b/Fixturing/Part List/Plasma Source Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Fixturing\Part List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D6B98-EEDA-4BCD-9B0D-FBA9D1590D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432239B-9E96-43CD-ADB5-5738E22B1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11314" yWindow="2820" windowWidth="15549" windowHeight="9986" xr2:uid="{5CC7A2D2-AE76-44BB-B4F8-76E2AD06EA05}"/>
+    <workbookView xWindow="14726" yWindow="0" windowWidth="14983" windowHeight="17880" xr2:uid="{5CC7A2D2-AE76-44BB-B4F8-76E2AD06EA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1A8B85-CAEA-4888-AB30-61035F3A79BF}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
